--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/GitHub/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5AEA93-AF09-1D43-9BBB-35353AAF47BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C06F1-D11D-4746-A579-5BA75F89B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>[W9: Manipulate Data](../modules/W9_Manipulate.html)</t>
   </si>
   <si>
-    <t>[W10: Making Inferences](../modules/W9_Infer.html)</t>
-  </si>
-  <si>
     <t>[Weeks 11-13: Data Collection](../modules/Weeks11_13.html)</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>[W15: Wrapping Up](../modules/W15_Wrap.html)</t>
+  </si>
+  <si>
+    <t>[W10: Making Inferences](../modules/W10_Infer.html)</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9152,7 +9152,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9174,7 +9174,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9185,7 +9185,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34">
@@ -9207,7 +9207,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9240,7 +9240,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9262,7 +9262,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9295,7 +9295,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">

--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/GitHub/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/employment/bowdoin/Teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C06F1-D11D-4746-A579-5BA75F89B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590953BA-0941-8F4A-BB22-4B720BE57FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -207,19 +207,10 @@
     <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (jsPsych) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #1 (Team Plan) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (R Descriptive) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:green"&gt;Formative Assignment (R Inferential) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #2 (QALMRI + Proposal) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #3 (Anatomy) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #4 (Design Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
@@ -250,9 +241,6 @@
   </si>
   <si>
     <t>[W4: jsPsych 101](../modules/W4_jsPsych.html)</t>
-  </si>
-  <si>
-    <t>[W5: Experiment Timeline)(../modules/W5_timeline.html)</t>
   </si>
   <si>
     <t>[W6: Recording Data](../modules/W5_Data.html)</t>
@@ -287,6 +275,21 @@
   <si>
     <t>[W10: Making Inferences](../modules/W10_Infer.html)</t>
   </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #1 (Team Plan + Review) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #2 (QALMRI) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Project Milestone #3 (Project Proposal) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W5: Experiment Timeline](../modules/W5_timeline.html)</t>
+  </si>
+  <si>
+    <t>Sunday, September 29, 2023</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +350,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +384,12 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -700,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -8902,7 +8917,7 @@
       <c r="XEX4"/>
       <c r="XEY4"/>
     </row>
-    <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
+    <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8910,7 +8925,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8921,7 +8936,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8935,7 +8950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
+    <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8943,7 +8958,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8954,7 +8969,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8968,7 +8983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
+    <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8976,7 +8991,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8987,7 +9002,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9006,9 +9021,9 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9020,7 +9035,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9031,7 +9046,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34">
@@ -9042,7 +9057,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9064,7 +9079,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
@@ -9075,7 +9090,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9086,7 +9101,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -9097,7 +9112,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34">
@@ -9108,7 +9123,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9119,7 +9134,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9140,8 +9155,8 @@
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>56</v>
+      <c r="C26" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9152,7 +9167,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9174,7 +9189,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9185,7 +9200,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34">
@@ -9195,8 +9210,8 @@
       <c r="B31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>57</v>
+      <c r="C31" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9207,7 +9222,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9229,7 +9244,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9240,7 +9255,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9262,7 +9277,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9284,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9295,7 +9310,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
@@ -9306,7 +9321,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -9317,7 +9332,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/employment/bowdoin/Teaching/courses/PSYC 2740/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/Fall 2023/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590953BA-0941-8F4A-BB22-4B720BE57FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD4DB9-EDD0-F745-A2B7-8CACDC0A939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Sunday, November 19, 2023</t>
   </si>
   <si>
-    <t>Friday, October 6, 2023</t>
-  </si>
-  <si>
     <t>Sunday, November 12, 2023</t>
   </si>
   <si>
@@ -288,7 +285,10 @@
     <t>[W5: Experiment Timeline](../modules/W5_timeline.html)</t>
   </si>
   <si>
-    <t>Sunday, September 29, 2023</t>
+    <t>Sunday, Oct 1, 2023</t>
+  </si>
+  <si>
+    <t>Sunday, November 5, 2023</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -390,6 +390,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -704,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -715,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -8925,7 +8928,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8936,7 +8939,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8958,7 +8961,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8969,7 +8972,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8991,7 +8994,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9002,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9016,15 +9019,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
+    <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9035,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9046,51 +9049,51 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9098,32 +9101,32 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9131,32 +9134,32 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="34">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="18">
       <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9164,21 +9167,21 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -9189,7 +9192,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9200,7 +9203,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34">
@@ -9208,10 +9211,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9222,17 +9225,17 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9244,7 +9247,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9255,7 +9258,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9265,7 +9268,7 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9277,7 +9280,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9299,7 +9302,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9310,7 +9313,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
@@ -9321,7 +9324,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -9332,7 +9335,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/Fall 2023/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD4DB9-EDD0-F745-A2B7-8CACDC0A939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF9A8D-0C48-F44B-AA81-6C157567802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Week</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Sunday, November 5, 2023</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#C633BF"&gt;Guest Session: &lt;a href="https://www.linkedin.com/in/kylefeatherston" target="_blank"&gt;Dr. Kyle Featherston&lt;/a&gt;&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9184,7 +9187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18">
+    <row r="29" spans="1:3" ht="51">
       <c r="A29">
         <v>11</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9203,7 +9206,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34">

--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/Fall 2023/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF9A8D-0C48-F44B-AA81-6C157567802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49D45D-E678-BA4F-BA4B-460C9AC48FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Sunday, October 15, 2023</t>
-  </si>
-  <si>
-    <t>Sunday, October 29, 2023</t>
   </si>
   <si>
     <t>Sunday, November 19, 2023</t>
@@ -680,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -710,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -721,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -8931,7 +8928,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8942,7 +8939,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8964,7 +8961,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8975,7 +8972,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8997,7 +8994,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9008,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9027,10 +9024,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9041,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9052,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9074,7 +9071,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9085,7 +9082,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9096,7 +9093,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9107,7 +9104,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34">
@@ -9118,7 +9115,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9129,7 +9126,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9143,15 +9140,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9159,21 +9156,21 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18">
+    <row r="27" spans="1:3" ht="34">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
+      <c r="B27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34">
@@ -9181,10 +9178,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="51">
@@ -9195,7 +9192,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9206,7 +9203,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34">
@@ -9214,10 +9211,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9228,7 +9225,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9247,10 +9244,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9261,7 +9258,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9283,7 +9280,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9305,7 +9302,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9316,7 +9313,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
@@ -9327,7 +9324,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -9338,7 +9335,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/coglab_2023_schedule.xlsx
+++ b/articles/course_docs/coglab_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2740/Fall 2023/coglab/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2740/Fall 2023/coglab/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49D45D-E678-BA4F-BA4B-460C9AC48FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD5D58-484C-114E-8697-A915C55F3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>Sunday, November 19, 2023</t>
   </si>
   <si>
-    <t>Sunday, November 12, 2023</t>
-  </si>
-  <si>
     <t>[W1: Getting started](../modules/W1_Getting_Started.html)</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#C633BF"&gt;Guest Session: &lt;a href="https://www.linkedin.com/in/kylefeatherston" target="_blank"&gt;Dr. Kyle Featherston&lt;/a&gt;&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Wednesday, November 29, 2023</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -8928,7 +8928,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="32" customHeight="1">
@@ -8939,7 +8939,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8961,7 +8961,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8972,7 +8972,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8994,7 +8994,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9005,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9024,10 +9024,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9038,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9049,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9071,7 +9071,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9082,7 +9082,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9093,7 +9093,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9104,7 +9104,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34">
@@ -9115,7 +9115,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9126,7 +9126,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9148,7 +9148,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9167,10 +9167,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34">
@@ -9178,10 +9178,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="51">
@@ -9192,7 +9192,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9203,84 +9203,84 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="34">
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>32</v>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
       <c r="A35">
         <v>13</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37">
         <v>14</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9302,7 +9302,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9313,7 +9313,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
@@ -9324,7 +9324,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34">
@@ -9335,7 +9335,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
